--- a/history/Results.xlsx
+++ b/history/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\University\Extracurricular\Covid Classification\Covid-Classification\history\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BCD1179-B878-41E7-A3C7-06603B3C8AAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD29DE19-1B4B-4E36-95B2-2C661E094D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
   <si>
     <t>model</t>
   </si>
@@ -214,6 +214,27 @@
   </si>
   <si>
     <t>train head first and then finetune</t>
+  </si>
+  <si>
+    <t>without our covid!</t>
+  </si>
+  <si>
+    <t>kaggle</t>
+  </si>
+  <si>
+    <t>6 idea</t>
+  </si>
+  <si>
+    <t>{'loss': 0.04678528509287289, 'accuracy': 0.9883449883449883, 'precision': 0.9859208274302613, 'recall': 0.9874668857324855, 'f1': 0.9866633579126489}</t>
+  </si>
+  <si>
+    <t>7 idea</t>
+  </si>
+  <si>
+    <t>HE kaggle images too.</t>
+  </si>
+  <si>
+    <t>{'loss': 0.08331976477497491, 'accuracy': 0.9819958847736625, 'precision': 0.984593606492048, 'recall': 0.9807886714943667, 'f1': 0.9825490644034068}</t>
   </si>
 </sst>
 </file>
@@ -281,12 +302,18 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -302,7 +329,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -324,6 +351,8 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -605,10 +634,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -791,26 +820,35 @@
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F8">
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9">
         <v>0.2</v>
       </c>
+      <c r="G8" s="9"/>
       <c r="N8" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="A9" s="9">
         <v>3</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="10" t="s">
         <v>34</v>
       </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N10" s="7" t="s">
@@ -850,6 +888,41 @@
       </c>
       <c r="F15">
         <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>6</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>7</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
